--- a/DiemDanh.xlsx
+++ b/DiemDanh.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>03/12/2022 11:40:47</t>
+          <t>03/12/2022 12:59:46</t>
         </is>
       </c>
     </row>
